--- a/biology/Médecine/Henry_Clay_Frick_II/Henry_Clay_Frick_II.xlsx
+++ b/biology/Médecine/Henry_Clay_Frick_II/Henry_Clay_Frick_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Clay Frick II (18 octobre 1919 – 9 février 2007) est un médecin américain, professeur de médecine au collège des médecins et chirurgiens de l'Université Columbia[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Clay Frick II (18 octobre 1919 – 9 février 2007) est un médecin américain, professeur de médecine au collège des médecins et chirurgiens de l'Université Columbia.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 18 octobre 1919 à Roslyn[2], il est le fils du paléontologue Childs Frick (1883–1965) et le petit-fils de son homonyme, le magnat du coke et de l'acier Henry Clay Frick (1849–1919).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 18 octobre 1919 à Roslyn, il est le fils du paléontologue Childs Frick (1883–1965) et le petit-fils de son homonyme, le magnat du coke et de l'acier Henry Clay Frick (1849–1919).
 Il a étudié à St. Paul's School (en) à Concord (New Hampshire). En 1942, il est sorti diplômé de l'Université de Princeton, puis en 1944 de l'école de médecine de l'Université Columbia. Après la Seconde Guerre mondiale, il a servi dans l'U.S. Army Medical Corps (en). Frick a exercé la médecine à New York ; il est devenu plus tard professeur d'obstétrique clinique à Columbia et oncologiste à l'hôpital presbytérien de New York. Dans les années 1960, il a volontairement fait deux tours de service dans un hôpital de campagne de la Guerre du Vietnam.
 Frick a été président du conseil d'administration de la Frick Collection (fondée par son grand-père) et dirigé la fondation de sa tante Helen Clay Frick (en). A ce poste, il a dirigé la restauration de la propriété de la famille Frick à Pittsburgh, Clayton (en). Il était aussi membre du conseil d'administration de la Wildlife Conservation Society et du Muséum américain d'histoire naturelle.
 Il est mort le 9 février 2007 à 87 ans dans sa maison d'Alpine (New Jersey).
